--- a/api/components/cifs/resources/cifs.xlsx
+++ b/api/components/cifs/resources/cifs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.quezada\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.quezada\Desktop\para darle entrada en sap\KTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D9215B-9FEF-499E-B5CB-31E02A6FCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B988AD36-FF89-42E5-9515-C851B9EFE49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="15450" windowHeight="11760" xr2:uid="{4DC3757B-72BA-4ABC-9044-EEE43A91F964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADC37618-82FD-450F-BA2A-202F3ECDE355}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Chasis</t>
   </si>
@@ -53,22 +53,115 @@
     <t>Color</t>
   </si>
   <si>
-    <t>CIF</t>
-  </si>
-  <si>
-    <t>JS1EC11C6N7100804</t>
-  </si>
-  <si>
-    <t>SUZUKI</t>
-  </si>
-  <si>
-    <t>RM Z250M2</t>
-  </si>
-  <si>
-    <t>AMARILLO</t>
-  </si>
-  <si>
-    <t>JS1EC11CXN7100806</t>
+    <t>VBKJPC405PC015970</t>
+  </si>
+  <si>
+    <t>KTM</t>
+  </si>
+  <si>
+    <t>200 DUKE</t>
+  </si>
+  <si>
+    <t>NARANJA/NEGRO</t>
+  </si>
+  <si>
+    <t>VBKLSV403RM764251</t>
+  </si>
+  <si>
+    <t>690 SMC R</t>
+  </si>
+  <si>
+    <t>NARANJA/AZUL</t>
+  </si>
+  <si>
+    <t>VBKTS3407RH703076</t>
+  </si>
+  <si>
+    <t>790 ADVENTURE</t>
+  </si>
+  <si>
+    <t>NEGRO</t>
+  </si>
+  <si>
+    <t>VBKJPJ407PC202700</t>
+  </si>
+  <si>
+    <t>390 DUKE</t>
+  </si>
+  <si>
+    <t>NARANJA/GRIS</t>
+  </si>
+  <si>
+    <t>VBKTV9405RM997143</t>
+  </si>
+  <si>
+    <t>990 DUKE</t>
+  </si>
+  <si>
+    <t>NARANJA</t>
+  </si>
+  <si>
+    <t>VBKTS3403RH703074</t>
+  </si>
+  <si>
+    <t>VBKV39401RM997672</t>
+  </si>
+  <si>
+    <t>1390 SUPER DUKE R EVO</t>
+  </si>
+  <si>
+    <t>VBKLSV408RM762978</t>
+  </si>
+  <si>
+    <t>VBKJPJ402PC208520</t>
+  </si>
+  <si>
+    <t>NEGRO/NARANJA</t>
+  </si>
+  <si>
+    <t>VBKGSA206RM376525</t>
+  </si>
+  <si>
+    <t>300 EXC HARDENDURO</t>
+  </si>
+  <si>
+    <t>VBKJPC406PC099782</t>
+  </si>
+  <si>
+    <t>GRIS/NEGRO</t>
+  </si>
+  <si>
+    <t>VBKJGD406NC041724</t>
+  </si>
+  <si>
+    <t>250 ADVENTURE</t>
+  </si>
+  <si>
+    <t>VBKJGD406NC046826</t>
+  </si>
+  <si>
+    <t>BLANCO/NEGRO/NARANJA</t>
+  </si>
+  <si>
+    <t>VBKJPC409PC099789</t>
+  </si>
+  <si>
+    <t>VBKJPC402PC015957</t>
+  </si>
+  <si>
+    <t>VBKTS6407PM869765</t>
+  </si>
+  <si>
+    <t>890 ADVENTURE</t>
+  </si>
+  <si>
+    <t>NARANJA/BLANCO</t>
+  </si>
+  <si>
+    <t>VBKLSV409RM762990</t>
+  </si>
+  <si>
+    <t>Cif</t>
   </si>
 </sst>
 </file>
@@ -78,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,14 +191,8 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +213,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7EDD0"/>
+        <fgColor rgb="FFFCFCFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,137 +233,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF525252"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF525252"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF525252"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF525252"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF525252"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF525252"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF525252"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF525252"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF525252"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF525252"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF525252"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF525252"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -278,45 +251,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,85 +607,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7302735-78CD-4728-9C36-F0FE19F6512A}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06982EB1-1F4D-4381-8A71-DDCE22B8A2A3}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F21" sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="3">
+        <v>124103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>499348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3">
+        <v>417222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>224024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2024</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>607156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5">
+        <v>417222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>936294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2024</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5">
+        <v>487806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3">
+        <v>220628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5">
+        <v>533411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3">
+        <v>129747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4">
         <v>2022</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7">
-        <v>327120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5">
+        <v>209766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3">
+        <v>205371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7">
+        <v>129747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>124103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2023</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="7">
+        <v>548582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2022</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9">
-        <v>260509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="D18" s="6">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7">
+        <v>487806</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
